--- a/data/trans_bre/P25_10-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_10-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,14</t>
+          <t>30,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,03</t>
+          <t>22,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,71</t>
+          <t>32,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>467,73%</t>
+          <t>29,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>126,95%</t>
+          <t>382,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>604,32%</t>
+          <t>180,6%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>902,44%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>214,63%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,7; 39,6</t>
+          <t>13,78; 47,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 28,08</t>
+          <t>5,51; 40,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,99; 32,73</t>
+          <t>17,84; 48,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>154,43; 1420,07</t>
+          <t>7,02; 49,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,07; 345,26</t>
+          <t>70,16; 2037,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>146,3; 2616,31</t>
+          <t>13,13; 897,49</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>120,71; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>32,88; 1004,62</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,18</t>
+          <t>22,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,59</t>
+          <t>17,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,56</t>
+          <t>16,75</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>326,54%</t>
+          <t>21,57</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>356,97%</t>
+          <t>336,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>179,14%</t>
+          <t>388,53%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>277,02%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>252,16%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,72; 26,72</t>
+          <t>14,96; 30,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 20,96</t>
+          <t>9,9; 23,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 19,08</t>
+          <t>9,53; 23,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>160,49; 622,27</t>
+          <t>12,77; 30,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>152,87; 746,16</t>
+          <t>129,96; 849,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>69,36; 392,07</t>
+          <t>116,69; 1033,6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>93,21; 645,37</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>87,35; 534,46</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,93</t>
+          <t>11,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,22</t>
+          <t>14,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>328,95%</t>
+          <t>13,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>486,41%</t>
+          <t>215,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>241,09%</t>
+          <t>408,66%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>206,25%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>206,49%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,65; 18,9</t>
+          <t>5,6; 18,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,24; 20,38</t>
+          <t>8,08; 20,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 15,09</t>
+          <t>2,15; 13,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>121,09; 726,41</t>
+          <t>6,32; 21,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>170,14; 1183,14</t>
+          <t>52,78; 679,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,41; 575,47</t>
+          <t>111,49; 1347,25</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7,15; 659,6</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>47,06; 549,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>352,69%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>297,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>241,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,06; 24,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,36; 19,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,02; 17,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>214,18; 560,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>184,8; 497,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>137,97; 405,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19,15</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16,85</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15,62</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20,34</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>296,74%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>322,65%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>313,02%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>231,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 24,55</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12,42; 21,36</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11,18; 20,22</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14,62; 25,99</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>156,29; 579,03</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>168,5; 614,3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>155,34; 604,64</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>125,38; 401,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_10-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_10-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>30,19</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>22,51</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>32,21</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>29,59</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>382,42%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>180,6%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>902,44%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>214,63%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>28.92794451398523</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>23.69632135386253</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>33.28359350021257</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>28.9600025959586</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>2.895565940494369</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.910078369342731</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>9.504738173250621</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>2.052338933060717</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>13,78; 47,23</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5,51; 40,19</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>17,84; 48,12</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>7,02; 49,94</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>70,16; 2037,83</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>13,13; 897,49</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>120,71; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>32,88; 1004,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>11.32572727069717</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>6.051253430374503</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>18.42495125268747</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>7.182281502872965</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.3496084183511856</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.1480325379536765</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>1.046667452303997</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.3274704434897491</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>46.60547116162054</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>41.73301117592452</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>50.59372448602829</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>50.04541544393076</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>14.74967511978438</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>8.829714549050397</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>10.48930730629804</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>22,6</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>17,09</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>16,75</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>21,57</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>336,24%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>388,53%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>277,02%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>252,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>14,96; 30,75</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>9,9; 23,1</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>9,53; 23,83</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>12,77; 30,03</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>129,96; 849,82</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>116,69; 1033,6</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>93,21; 645,37</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>87,35; 534,46</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>23.88987889855638</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>17.41860892001479</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>15.61838261906398</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>21.33752024925931</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.601059541592237</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>3.92663918939232</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.348321489215793</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.587678153128832</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,94</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>14,79</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,35</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>13,77</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>215,53%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>408,66%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>206,25%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>206,49%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>16.19290191766625</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>9.90982545425361</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>8.24169537611477</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>12.72288990597297</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>1.476143720123095</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>1.18520316802704</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.7338341998267921</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.9531440687847407</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>5,6; 18,91</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>8,08; 20,78</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,15; 13,83</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>6,32; 21,06</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>52,78; 679,65</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>111,49; 1347,25</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>7,15; 659,6</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>47,06; 549,76</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>32.7349698611499</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>23.59898399322714</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>22.98529626873917</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>29.65067808060801</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>9.100467394682978</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>9.502152063476045</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.683101881174491</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>5.550253278681812</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +825,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>11.78189175047529</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>14.98963140549642</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.274494485417074</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>13.65522529464935</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>2.352608706180189</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>4.563716445456845</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>2.14817723055221</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.101257631270374</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>5.783518154232088</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>8.463567439718805</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.281194838300971</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>6.374542396270154</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.6239670455387296</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>1.300748391733529</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.2031350601900375</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.518350358135245</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.52020446986653</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>21.04389761954896</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.542546129551</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>20.91892925211072</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>7.35921515657042</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>15.11740624752992</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>6.903115362522979</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>5.597434506300623</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>19,15</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>16,85</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>15,62</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>20,34</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>296,74%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>322,65%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>313,02%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>231,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>14,13; 24,55</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>12,42; 21,36</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>11,18; 20,22</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>14,62; 25,99</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>156,29; 579,03</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>168,5; 614,3</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>155,34; 604,64</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>125,38; 401,55</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>19.57246879123015</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>17.38015492460659</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>15.37414075976512</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>20.19423549674283</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.020282778679517</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>3.434883237421076</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>2.932266101619096</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>2.340445272750133</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>14.37055398718334</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>12.9237009077658</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>10.63458445010954</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>14.76291172397073</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1.522675669954056</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>1.807367049984527</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>1.339284468118719</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>1.275412961551316</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>25.38461357992558</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>21.96792774623133</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>20.09912411466187</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>26.01496272058457</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>5.838076466552209</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>6.48571773656153</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>5.82337519365784</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>4.049635127523617</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
